--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -1,54 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/python/chronicliner/data/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC4C222-9540-B34E-9154-086E1457E627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE653F6-29E3-E540-8C54-9170E1B310E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="9020" windowWidth="27900" windowHeight="16940" xr2:uid="{89800310-9246-A444-B10E-E3BCDC4751D6}"/>
+    <workbookView xWindow="28260" yWindow="5460" windowWidth="27900" windowHeight="16940" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
+    <sheet name="キャラクター" sheetId="2" r:id="rId2"/>
+    <sheet name="教育課程" sheetId="3" r:id="rId3"/>
+    <sheet name="イベント" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>LCategory</t>
-  </si>
-  <si>
-    <t>SCategory</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Detail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニチジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降を無視</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イコウヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ムシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">メイショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始月</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始年齢</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カイシネンレイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンジョウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シボウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育課程名</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">キョウイクカテイメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始年齢調整</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ネンレイチョウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年自動計算</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンジョウネン </t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">ジドウケイサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起算年</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キサン </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起算課程</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キサンガクネン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起算学年</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">キサンガクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ色</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -411,16 +539,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10531430-8122-CF47-8BC1-542EEAD6FC4B}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42566CE9-D46B-8643-A37F-5FD781DC1470}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,15 +665,6 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE653F6-29E3-E540-8C54-9170E1B310E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CC107-1C1D-9844-8370-33A89C468EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28260" yWindow="5460" windowWidth="27900" windowHeight="16940" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="23300" yWindow="5460" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -50,16 +50,6 @@
     <t>日時</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ニチジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降を無視</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">イコウヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ムシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,6 +166,26 @@
   </si>
   <si>
     <t>カテゴリ色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下を無視</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ムシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前 / 以降</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゼン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42566CE9-D46B-8643-A37F-5FD781DC1470}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -550,10 +560,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -574,34 +584,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -622,16 +632,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -642,15 +652,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,10 +671,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -1,192 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/python/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CC107-1C1D-9844-8370-33A89C468EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC4C222-9540-B34E-9154-086E1457E627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="5460" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="13280" yWindow="9020" windowWidth="27900" windowHeight="16940" xr2:uid="{89800310-9246-A444-B10E-E3BCDC4751D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
-    <sheet name="キャラクター" sheetId="2" r:id="rId2"/>
-    <sheet name="教育課程" sheetId="3" r:id="rId3"/>
-    <sheet name="イベント" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ニチジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ショウサイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">メイショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年数</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ネンスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始月</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ツキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始年齢</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">カイシネンレイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラクタ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誕生日</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タンジョウビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡日</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">シボウビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教育課程名</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">キョウイクカテイメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始年齢調整</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カイシ </t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t xml:space="preserve">ネンレイチョウセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誕生年自動計算</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タンジョウネン </t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t xml:space="preserve">ジドウケイサン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算年</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサン </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算課程</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">カテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算学年</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ色</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下を無視</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">イカ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ムシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前 / 以降</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">イゼン </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">イコウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>LCategory</t>
+  </si>
+  <si>
+    <t>SCategory</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Detail</t>
   </si>
 </sst>
 </file>
@@ -549,118 +411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42566CE9-D46B-8643-A37F-5FD781DC1470}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10531430-8122-CF47-8BC1-542EEAD6FC4B}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,13 +431,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CC107-1C1D-9844-8370-33A89C468EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865789E-0C1C-B742-9310-42E6FE07ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="5460" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="18580" yWindow="3520" windowWidth="27900" windowHeight="16940" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
-    <sheet name="キャラクター" sheetId="2" r:id="rId2"/>
+    <sheet name="キャラクター" sheetId="5" r:id="rId2"/>
     <sheet name="教育課程" sheetId="3" r:id="rId3"/>
     <sheet name="イベント" sheetId="4" r:id="rId4"/>
+    <sheet name="期間イベント" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,9 +38,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t>カテゴリ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンジョウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シボウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">タンジョウビショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡日詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シボウビショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年自動計算</t>
+    <rPh sb="0" eb="7">
+      <t xml:space="preserve">タンジョウネンジドウケイサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育課程名</t>
+    <rPh sb="0" eb="4">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準所属年数</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">キジュンショゾクネンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起算日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キサンビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始年齢</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カイシネンレイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編入学年</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヘンニュウガクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編入日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘンニュウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年起算年</t>
+    <rPh sb="0" eb="5">
+      <t>タンジョウネンキサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年起算学年</t>
+    <rPh sb="0" eb="7">
+      <t xml:space="preserve">タンジョウネンキサンガクネン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -54,6 +164,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>以下を無視</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカヲムシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前 / 以降</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゼン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ショウサイ </t>
@@ -61,117 +188,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">メイショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年数</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ネンスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始月</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ツキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始年齢</t>
+    <t>開始日時</t>
     <rPh sb="0" eb="4">
-      <t xml:space="preserve">カイシネンレイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラクタ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誕生日</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タンジョウビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡日</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">シボウビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教育課程名</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">キョウイクカテイメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始年齢調整</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カイシ </t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t xml:space="preserve">ネンレイチョウセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誕生年自動計算</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タンジョウネン </t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t xml:space="preserve">ジドウケイサン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算年</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサン </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算課程</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">カテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算学年</t>
+      <t xml:space="preserve">カイシニチジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時</t>
     <rPh sb="0" eb="4">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ色</t>
+      <t xml:space="preserve">シュウリョウニチジ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以下を無視</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">イカ </t>
+      <t xml:space="preserve">イカヲ </t>
     </rPh>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">ムシ </t>
@@ -179,12 +212,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前 / 以降</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">イゼン </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">イコウ </t>
+    <t>経過時間粒度</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">ケイカジカンリュウド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">カイシジショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シュウリョウジショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年自動計算に使用</t>
+    <rPh sb="0" eb="7">
+      <t>タンジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,8 +283,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,21 +606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42566CE9-D46B-8643-A37F-5FD781DC1470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31620FC2-6BC8-DB4E-985B-BFBD3CD19F92}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -573,46 +630,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E81E59C-A41C-8840-AD04-9D27973D53B5}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -621,28 +673,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E61594-711F-C541-9119-6980FABAEF41}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -651,24 +725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F464C-8DAD-AF46-92FE-07AFB5559B68}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -677,8 +751,57 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC42911-2A91-BB4C-AB9F-0B5844C770C9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865789E-0C1C-B742-9310-42E6FE07ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BB5F53-344C-774F-B9FF-157C7DC28412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="3520" windowWidth="27900" windowHeight="16940" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
+    <workbookView xWindow="10500" yWindow="3520" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>カテゴリ名</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +237,10 @@
     <rPh sb="0" eb="7">
       <t>タンジョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -311,7 +315,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -599,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31620FC2-6BC8-DB4E-985B-BFBD3CD19F92}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -631,15 +635,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E81E59C-A41C-8840-AD04-9D27973D53B5}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -661,8 +665,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BB5F53-344C-774F-B9FF-157C7DC28412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08632FF0-D549-884C-91A8-F78E6361A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="3520" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
+    <workbookView xWindow="10500" yWindow="3520" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>カテゴリ名</t>
     <phoneticPr fontId="1"/>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E81E59C-A41C-8840-AD04-9D27973D53B5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -733,15 +733,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F464C-8DAD-AF46-92FE-07AFB5559B68}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -760,8 +760,11 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
@@ -772,15 +775,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC42911-2A91-BB4C-AB9F-0B5844C770C9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -805,8 +808,11 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08632FF0-D549-884C-91A8-F78E6361A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83E052-1F2F-944D-8D3F-12B509AA7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="3520" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
+    <workbookView xWindow="20800" yWindow="4600" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>カテゴリ名</t>
     <phoneticPr fontId="1"/>
@@ -241,6 +232,20 @@
   </si>
   <si>
     <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要イベント</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジュウヨウイベント </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要イベント</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -315,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,15 +738,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F464C-8DAD-AF46-92FE-07AFB5559B68}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -761,10 +766,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
@@ -775,15 +783,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC42911-2A91-BB4C-AB9F-0B5844C770C9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -809,10 +817,13 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>

--- a/data/temp/template.xlsx
+++ b/data/temp/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83E052-1F2F-944D-8D3F-12B509AA7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68E7F96-CA78-1448-8C6E-DD455A93911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="4600" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
+    <workbookView xWindow="20800" yWindow="4600" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D989463A-E24D-3D47-AE81-4F41C2D3D2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>カテゴリ名</t>
     <phoneticPr fontId="1"/>
@@ -246,6 +246,10 @@
     <rPh sb="0" eb="2">
       <t>ジュウヨ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -320,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,15 +742,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F464C-8DAD-AF46-92FE-07AFB5559B68}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
@@ -783,15 +790,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC42911-2A91-BB4C-AB9F-0B5844C770C9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,11 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
